--- a/who_approved_vaccines.xlsx
+++ b/who_approved_vaccines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonesse3\Desktop\vaccine_cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayerlm\Saved Games\Desktop\text-recognition-ocr-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE8C4E0A-6E74-4DEC-BBF9-E6996E459E2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F7B805-6EDD-4452-9595-77A8B89A281C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1886" yWindow="1886" windowWidth="24685" windowHeight="13183" xr2:uid="{76E00BC0-AF6D-4B02-BBFC-0318E1DF2A55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{76E00BC0-AF6D-4B02-BBFC-0318E1DF2A55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>vaccines</t>
   </si>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t>Covishield Oxford/AstraZeneca Serum Institute of India</t>
+  </si>
+  <si>
+    <t>Pfizer</t>
+  </si>
+  <si>
+    <t>Moderna</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>Janssen</t>
+  </si>
+  <si>
+    <t>AstraZeneca</t>
+  </si>
+  <si>
+    <t>Covishield</t>
+  </si>
+  <si>
+    <t>Sinopharm</t>
+  </si>
+  <si>
+    <t>Sinovac</t>
   </si>
 </sst>
 </file>
@@ -426,52 +450,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B169F167-4B63-49D3-87A0-62AF1D846C6A}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/who_approved_vaccines.xlsx
+++ b/who_approved_vaccines.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayerlm\Saved Games\Desktop\text-recognition-ocr-python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayerlm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F7B805-6EDD-4452-9595-77A8B89A281C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305BF6B3-D138-4C59-9341-7396FA4FDE6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{76E00BC0-AF6D-4B02-BBFC-0318E1DF2A55}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>vaccines</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Sinovac</t>
+  </si>
+  <si>
+    <t>Comirnaty</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B169F167-4B63-49D3-87A0-62AF1D846C6A}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,57 +487,62 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>

--- a/who_approved_vaccines.xlsx
+++ b/who_approved_vaccines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayerlm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonesse3\Desktop\vaccine_cards\card_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305BF6B3-D138-4C59-9341-7396FA4FDE6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4432526C-AF82-48D6-AB76-5C4C46DDDBFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{76E00BC0-AF6D-4B02-BBFC-0318E1DF2A55}"/>
+    <workbookView xWindow="651" yWindow="651" windowWidth="28800" windowHeight="15412" xr2:uid="{76E00BC0-AF6D-4B02-BBFC-0318E1DF2A55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>vaccines</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Moderna mRNA-1273</t>
   </si>
@@ -85,13 +82,28 @@
   </si>
   <si>
     <t>Comirnaty</t>
+  </si>
+  <si>
+    <t>vaccine_key_terms</t>
+  </si>
+  <si>
+    <t>vaccine</t>
+  </si>
+  <si>
+    <t>Pfizer-BioNTech</t>
+  </si>
+  <si>
+    <t>Janssen (Johnson &amp; Johnson)</t>
+  </si>
+  <si>
+    <t>CoronaVac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +122,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,10 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,100 +474,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B169F167-4B63-49D3-87A0-62AF1D846C6A}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>